--- a/課題一覧(Mosp).xlsx
+++ b/課題一覧(Mosp).xlsx
@@ -5,26 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ktnr_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataMigration\repository\mospDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F887A61-374C-47E7-85DC-C95BC13B4240}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6D578-97A6-480A-A298-A939AAF0BA27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{EF978240-A43C-418B-9BCC-C1B8636F412A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -121,13 +115,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>伊禮</t>
-    <rPh sb="0" eb="2">
-      <t>イレイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
@@ -229,6 +216,13 @@
   <si>
     <t>「入力した工数をこういう風に見れたら便利だよね」とか、「勤怠と工数があっていることを確認できる画面あったら良いよね」みたいな観点で画面を考える。
 （Redmineの作業時間の記録のような機能）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山城</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシロ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -702,7 +696,7 @@
   <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -715,7 +709,7 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -730,7 +724,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -738,22 +732,22 @@
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -766,13 +760,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
@@ -783,7 +777,7 @@
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>14</v>
@@ -806,13 +800,13 @@
         <v>15</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -827,7 +821,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -844,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -857,17 +851,17 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -876,13 +870,13 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="3"/>
     </row>

--- a/課題一覧(Mosp).xlsx
+++ b/課題一覧(Mosp).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataMigration\repository\mospDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TortoiseGit\mosp\mospDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6D578-97A6-480A-A298-A939AAF0BA27}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320E931A-C97A-40CF-AA0E-36F6CEBF66AE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" xr2:uid="{EF978240-A43C-418B-9BCC-C1B8636F412A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>呉屋</t>
   </si>
@@ -222,6 +222,27 @@
     <t>山城</t>
     <rPh sb="0" eb="2">
       <t>ヤマシロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動マスタ画面の作成</t>
+    <rPh sb="0" eb="2">
+      <t>カツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>活動マスタテーブルの作成</t>
+    <rPh sb="0" eb="2">
+      <t>カツドウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -344,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,9 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -377,6 +395,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -693,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCF7AFF-7F23-4EA0-ABEA-5B8F1DFCD414}">
-  <dimension ref="A2:G11"/>
+  <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -731,7 +758,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1">
@@ -752,8 +779,8 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="9">
+      <c r="A4" s="12"/>
+      <c r="B4" s="8">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -773,9 +800,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="8"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
@@ -788,7 +815,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -805,7 +832,7 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1">
@@ -826,7 +853,7 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -843,7 +870,7 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -860,7 +887,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="1">
@@ -881,7 +908,7 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -895,8 +922,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="11"/>
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A11"/>
